--- a/Tee.xlsx
+++ b/Tee.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t xml:space="preserve"> Tea</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Max Elevation (m)</t>
   </si>
   <si>
+    <t>Average Elevation (m)</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -55,12 +58,15 @@
     <t>Sencha</t>
   </si>
   <si>
+    <t>China, Japan</t>
+  </si>
+  <si>
+    <t>Pu Erh</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
-    <t>Pu Erh</t>
-  </si>
-  <si>
     <t>pu erh</t>
   </si>
   <si>
@@ -79,7 +85,7 @@
     <t>light brown</t>
   </si>
   <si>
-    <t>Earl grey</t>
+    <t>Earl Grey</t>
   </si>
   <si>
     <t>black</t>
@@ -128,6 +134,12 @@
   </si>
   <si>
     <t>Russian Samovar</t>
+  </si>
+  <si>
+    <t>Mate</t>
+  </si>
+  <si>
+    <t>Argentina, Brazil</t>
   </si>
 </sst>
 </file>
@@ -395,6 +407,7 @@
     <col customWidth="1" min="5" max="5" width="10.88"/>
     <col customWidth="1" min="6" max="6" width="14.88"/>
     <col customWidth="1" min="7" max="7" width="15.75"/>
+    <col customWidth="1" min="8" max="8" width="19.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -425,10 +438,13 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>10.0</v>
@@ -437,11 +453,11 @@
         <v>20.0</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D18" si="1">B2/(C2+B2)</f>
+        <f t="shared" ref="D2:D19" si="1">B2/(C2+B2)</f>
         <v>0.3333333333</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>200.0</v>
@@ -449,16 +465,20 @@
       <c r="G2" s="1">
         <v>700.0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H19" si="2">(F2+G2)/2</f>
+        <v>450</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>20.0</v>
@@ -471,7 +491,7 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>700.0</v>
@@ -479,16 +499,20 @@
       <c r="G3" s="1">
         <v>2000.0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
+      <c r="H3" s="1">
+        <f t="shared" si="2"/>
+        <v>1350</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>2.92</v>
@@ -501,7 +525,7 @@
         <v>0.2050561798</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>200.0</v>
@@ -509,16 +533,20 @@
       <c r="G4" s="1">
         <v>500.0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>350</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>0.01</v>
@@ -531,7 +559,7 @@
         <v>0.0003332222592</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
         <v>1000.0</v>
@@ -539,16 +567,20 @@
       <c r="G5" s="1">
         <v>2200.0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>3.83</v>
@@ -561,7 +593,7 @@
         <v>0.2266272189</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>1000.0</v>
@@ -569,16 +601,20 @@
       <c r="G6" s="1">
         <v>2500.0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>1750</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>6.0</v>
@@ -591,7 +627,7 @@
         <v>0.2307692308</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1">
         <v>1000.0</v>
@@ -599,16 +635,20 @@
       <c r="G7" s="1">
         <v>1600.0</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>1300</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2">
         <v>2.7</v>
@@ -621,7 +661,7 @@
         <v>0.1407716371</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1">
         <v>1600.0</v>
@@ -629,16 +669,20 @@
       <c r="G8" s="1">
         <v>1800.0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>1700</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2">
         <v>4.25</v>
@@ -651,7 +695,7 @@
         <v>0.2316076294</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1">
         <v>2000.0</v>
@@ -659,16 +703,20 @@
       <c r="G9" s="1">
         <v>2300.0</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>2150</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
         <v>5.69</v>
@@ -681,7 +729,7 @@
         <v>0.2220921155</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1">
         <v>1600.0</v>
@@ -689,16 +737,20 @@
       <c r="G10" s="1">
         <v>2000.0</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>23</v>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>1800</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
         <v>4.33</v>
@@ -711,7 +763,7 @@
         <v>0.2286166843</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
         <v>700.0</v>
@@ -719,16 +771,20 @@
       <c r="G11" s="1">
         <v>1500.0</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>1100</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2">
         <v>1.3</v>
@@ -741,7 +797,7 @@
         <v>0.2452830189</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1">
         <v>500.0</v>
@@ -749,16 +805,20 @@
       <c r="G12" s="1">
         <v>1500.0</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>31</v>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2">
         <v>6.11</v>
@@ -771,7 +831,7 @@
         <v>0.3373826615</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1">
         <v>450.0</v>
@@ -779,16 +839,20 @@
       <c r="G13" s="1">
         <v>2100.0</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>1275</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2">
         <v>2.0</v>
@@ -801,7 +865,7 @@
         <v>0.2857142857</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1">
         <v>200.0</v>
@@ -809,16 +873,20 @@
       <c r="G14" s="1">
         <v>750.0</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>475</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2">
         <v>6.54</v>
@@ -831,7 +899,7 @@
         <v>0.4497936726</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1">
         <v>200.0</v>
@@ -839,16 +907,20 @@
       <c r="G15" s="1">
         <v>500.0</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>350</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>2.81</v>
@@ -861,7 +933,7 @@
         <v>0.1920710868</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1">
         <v>500.0</v>
@@ -869,16 +941,20 @@
       <c r="G16" s="1">
         <v>600.0</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>11</v>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>550</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2">
         <v>6.0</v>
@@ -891,7 +967,7 @@
         <v>0.5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1">
         <v>350.0</v>
@@ -899,16 +975,20 @@
       <c r="G17" s="1">
         <v>400.0</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>11</v>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>375</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>3.8</v>
@@ -921,7 +1001,7 @@
         <v>0.1906673357</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1">
         <v>1200.0</v>
@@ -929,11 +1009,49 @@
       <c r="G18" s="1">
         <v>1600.0</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>23</v>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>1400</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0003332222592</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>800.0</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Tee.xlsx
+++ b/Tee.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t xml:space="preserve"> Tea</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Argentina, Brazil</t>
+  </si>
+  <si>
+    <t>Gyokuro</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
         <v>20.0</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D19" si="1">B2/(C2+B2)</f>
+        <f t="shared" ref="D2:D20" si="1">B2/(C2+B2)</f>
         <v>0.3333333333</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -466,7 +469,7 @@
         <v>700.0</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H19" si="2">(F2+G2)/2</f>
+        <f t="shared" ref="H2:H20" si="2">(F2+G2)/2</f>
         <v>450</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1051,6 +1054,40 @@
         <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4285714286</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Tee.xlsx
+++ b/Tee.xlsx
@@ -11,30 +11,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
-  <si>
-    <t xml:space="preserve"> Tea</t>
-  </si>
-  <si>
-    <t>Theanine (mg in 1g tea)</t>
-  </si>
-  <si>
-    <t>Caffeine (mg in 1 g tea)</t>
-  </si>
-  <si>
-    <t>Theanine Share</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Min Elevation (m)</t>
-  </si>
-  <si>
-    <t>Max Elevation (m)</t>
-  </si>
-  <si>
-    <t>Average Elevation (m)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Theanine_mg_in_1g_tea</t>
+  </si>
+  <si>
+    <t>Caffeine_mg_in_1g_tea</t>
+  </si>
+  <si>
+    <t>Theanine_Share</t>
+  </si>
+  <si>
+    <t>EGCG_mg_in_1g_tea</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Woe_name</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Flavor</t>
+  </si>
+  <si>
+    <t>Min_Elevation_m</t>
+  </si>
+  <si>
+    <t>Max_Elevation_m</t>
+  </si>
+  <si>
+    <t>Average_Elevation_m</t>
   </si>
   <si>
     <t>Type</t>
@@ -43,73 +61,124 @@
     <t>Color</t>
   </si>
   <si>
-    <t>Matcha Basic</t>
+    <t>Matcha_Basic</t>
+  </si>
+  <si>
+    <t>Asia</t>
   </si>
   <si>
     <t>Japan</t>
   </si>
   <si>
+    <t>Kyoto</t>
+  </si>
+  <si>
+    <t>bright_vegetal_bitter_sweet_umami</t>
+  </si>
+  <si>
     <t>green</t>
   </si>
   <si>
-    <t>Matcha Ceremonial</t>
+    <t>Matcha_Ceremonial</t>
+  </si>
+  <si>
+    <t>mellow_vegetal_grassy_sweet_nutty_bitter_savory</t>
   </si>
   <si>
     <t>Sencha</t>
   </si>
   <si>
-    <t>China, Japan</t>
-  </si>
-  <si>
-    <t>Pu Erh</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
-    <t>pu erh</t>
-  </si>
-  <si>
-    <t>dark brown</t>
+    <t>Zhejiang</t>
+  </si>
+  <si>
+    <t>light_fresh_sweet_grassy_vegetal_young</t>
+  </si>
+  <si>
+    <t>Pu_Erh</t>
+  </si>
+  <si>
+    <t>Yunnan</t>
+  </si>
+  <si>
+    <t>full_smooth_earthy</t>
+  </si>
+  <si>
+    <t>pu_erh</t>
+  </si>
+  <si>
+    <t>dark_brown</t>
   </si>
   <si>
     <t>Gunpowder</t>
   </si>
   <si>
+    <t>bold_smoky_bitter_nutty_vegetal_grassy</t>
+  </si>
+  <si>
     <t>Oolong</t>
   </si>
   <si>
+    <t>Fujian</t>
+  </si>
+  <si>
+    <t>mellow_full_sweet_roasted_fruity_complex</t>
+  </si>
+  <si>
     <t>oolong</t>
   </si>
   <si>
-    <t>light brown</t>
-  </si>
-  <si>
-    <t>Earl Grey</t>
+    <t>light_brown</t>
+  </si>
+  <si>
+    <t>Earl_Grey</t>
+  </si>
+  <si>
+    <t>bergamot_citrus_floral_bitter</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>Darjeeling First Flush</t>
+    <t>Darjeeling_First_Flush</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
+    <t>West_Bengal</t>
+  </si>
+  <si>
+    <t>unique_delicate_floral_fresh_sharp_light</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
     <t>Assam</t>
   </si>
   <si>
+    <t>bold_malty_brisk_full</t>
+  </si>
+  <si>
     <t>Ceylon</t>
   </si>
   <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Pai Mu Tan</t>
+    <t>Sri_Lanka</t>
+  </si>
+  <si>
+    <t>Nuwara_Eliya</t>
+  </si>
+  <si>
+    <t>bold_full_citrus_spice_chocolate_fresh</t>
+  </si>
+  <si>
+    <t>Pai_Mu_Tan</t>
+  </si>
+  <si>
+    <t>fine_floral_fresh_smooth_delicate_light</t>
   </si>
   <si>
     <t>white</t>
@@ -118,31 +187,76 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>Chun Me</t>
-  </si>
-  <si>
-    <t>Hoji Cha</t>
-  </si>
-  <si>
-    <t>Genmai Cha</t>
+    <t>Chun_Me</t>
+  </si>
+  <si>
+    <t>Jiangxi</t>
+  </si>
+  <si>
+    <t>pure_sweet_smooth_strong</t>
+  </si>
+  <si>
+    <t>Hoji_Cha</t>
+  </si>
+  <si>
+    <t>full_nutty_smooth_roasted_chocolate</t>
+  </si>
+  <si>
+    <t>Genmai_Cha</t>
+  </si>
+  <si>
+    <t>Shizuoka</t>
+  </si>
+  <si>
+    <t>mild_nutty_toasty_popcorn_fresh_grassy_warm_full_sweet</t>
   </si>
   <si>
     <t>Bancha</t>
   </si>
   <si>
-    <t>Kuki Cha</t>
-  </si>
-  <si>
-    <t>Russian Samovar</t>
+    <t>Kagoshima</t>
+  </si>
+  <si>
+    <t>fresh_light_woody_bitter_caramel_old</t>
+  </si>
+  <si>
+    <t>Kuki_Cha</t>
+  </si>
+  <si>
+    <t>mild_nutty_sweet_creamy_woody</t>
+  </si>
+  <si>
+    <t>Russian_Caravan</t>
+  </si>
+  <si>
+    <t>Anhui</t>
+  </si>
+  <si>
+    <t>smoky_sweet_earthy</t>
   </si>
   <si>
     <t>Mate</t>
   </si>
   <si>
-    <t>Argentina, Brazil</t>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Misiones</t>
+  </si>
+  <si>
+    <t>bitter_vegetal_ashtray_dirty</t>
   </si>
   <si>
     <t>Gyokuro</t>
+  </si>
+  <si>
+    <t>Fukuoka</t>
+  </si>
+  <si>
+    <t>hearty_sweet_umami_dew_full_savoring</t>
   </si>
 </sst>
 </file>
@@ -403,14 +517,18 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="2" max="2" width="19.75"/>
-    <col customWidth="1" min="3" max="3" width="19.88"/>
-    <col customWidth="1" min="4" max="4" width="14.75"/>
-    <col customWidth="1" min="5" max="5" width="10.88"/>
-    <col customWidth="1" min="6" max="6" width="14.88"/>
-    <col customWidth="1" min="7" max="7" width="15.75"/>
-    <col customWidth="1" min="8" max="8" width="19.38"/>
+    <col customWidth="1" min="1" max="1" width="15.25"/>
+    <col customWidth="1" min="2" max="2" width="13.75"/>
+    <col customWidth="1" min="3" max="3" width="13.88"/>
+    <col customWidth="1" min="4" max="4" width="11.13"/>
+    <col customWidth="1" min="5" max="5" width="20.5"/>
+    <col customWidth="1" min="6" max="7" width="10.88"/>
+    <col customWidth="1" min="8" max="8" width="11.0"/>
+    <col customWidth="1" min="9" max="10" width="12.63"/>
+    <col customWidth="1" min="11" max="11" width="43.63"/>
+    <col customWidth="1" min="12" max="12" width="14.88"/>
+    <col customWidth="1" min="13" max="13" width="15.75"/>
+    <col customWidth="1" min="14" max="14" width="19.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -444,10 +562,28 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>10.0</v>
@@ -459,29 +595,47 @@
         <f t="shared" ref="D2:D20" si="1">B2/(C2+B2)</f>
         <v>0.3333333333</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1">
+        <v>35.0116</v>
+      </c>
+      <c r="J2" s="1">
+        <v>135.7681</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1">
         <v>200.0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="M2" s="1">
         <v>700.0</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H20" si="2">(F2+G2)/2</f>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N20" si="2">(L2+M2)/2</f>
         <v>450</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>20.0</v>
@@ -493,29 +647,47 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1">
+        <v>35.0116</v>
+      </c>
+      <c r="J3" s="1">
+        <v>135.7681</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1">
         <v>700.0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="M3" s="1">
         <v>2000.0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="N3" s="1">
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2">
         <v>2.92</v>
@@ -527,29 +699,47 @@
         <f t="shared" si="1"/>
         <v>0.2050561798</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1">
+        <v>30.2655</v>
+      </c>
+      <c r="J4" s="1">
+        <v>120.1536</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1">
         <v>200.0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="M4" s="1">
         <v>500.0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="N4" s="1">
         <f t="shared" si="2"/>
         <v>350</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
+      <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>0.01</v>
@@ -561,29 +751,47 @@
         <f t="shared" si="1"/>
         <v>0.0003332222592</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>25.0453</v>
+      </c>
+      <c r="J5" s="1">
+        <v>102.7097</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1">
         <v>1000.0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="M5" s="1">
         <v>2200.0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="N5" s="1">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
+      <c r="O5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2">
         <v>3.83</v>
@@ -595,29 +803,47 @@
         <f t="shared" si="1"/>
         <v>0.2266272189</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30.2655</v>
+      </c>
+      <c r="J6" s="1">
+        <v>120.1536</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1">
         <v>1000.0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="M6" s="1">
         <v>2500.0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>1750</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
         <v>6.0</v>
@@ -629,29 +855,47 @@
         <f t="shared" si="1"/>
         <v>0.2307692308</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1">
+        <v>26.0998</v>
+      </c>
+      <c r="J7" s="1">
+        <v>119.2966</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="1">
         <v>1000.0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="M7" s="1">
         <v>1600.0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="2"/>
         <v>1300</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
+      <c r="O7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2">
         <v>2.7</v>
@@ -663,29 +907,47 @@
         <f t="shared" si="1"/>
         <v>0.1407716371</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1">
+        <v>25.0453</v>
+      </c>
+      <c r="J8" s="1">
+        <v>102.7097</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="1">
         <v>1600.0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="M8" s="1">
         <v>1800.0</v>
       </c>
-      <c r="H8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="2"/>
         <v>1700</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>19</v>
+      <c r="O8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2">
         <v>4.25</v>
@@ -697,29 +959,47 @@
         <f t="shared" si="1"/>
         <v>0.2316076294</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1">
+        <v>22.9868</v>
+      </c>
+      <c r="J9" s="1">
+        <v>87.855</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="1">
         <v>2000.0</v>
       </c>
-      <c r="G9" s="1">
-        <v>2300.0</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="2"/>
-        <v>2150</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>28</v>
+      <c r="M9" s="1">
+        <v>2500.0</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>2250</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
         <v>5.69</v>
@@ -731,29 +1011,47 @@
         <f t="shared" si="1"/>
         <v>0.2220921155</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="1">
+        <v>26.2006</v>
+      </c>
+      <c r="J10" s="1">
+        <v>92.9376</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="1">
         <v>1600.0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="M10" s="1">
         <v>2000.0</v>
       </c>
-      <c r="H10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>19</v>
+      <c r="O10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2">
         <v>4.33</v>
@@ -765,29 +1063,47 @@
         <f t="shared" si="1"/>
         <v>0.2286166843</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6.9607</v>
+      </c>
+      <c r="J11" s="1">
+        <v>80.7693</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="1">
         <v>700.0</v>
       </c>
-      <c r="G11" s="1">
+      <c r="M11" s="1">
         <v>1500.0</v>
       </c>
-      <c r="H11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>19</v>
+      <c r="O11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2">
         <v>1.3</v>
@@ -799,29 +1115,47 @@
         <f t="shared" si="1"/>
         <v>0.2452830189</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1">
+        <v>26.0998</v>
+      </c>
+      <c r="J12" s="1">
+        <v>119.2966</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="1">
         <v>500.0</v>
       </c>
-      <c r="G12" s="1">
+      <c r="M12" s="1">
         <v>1500.0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="N12" s="1">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>34</v>
+      <c r="O12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2">
         <v>6.11</v>
@@ -833,63 +1167,99 @@
         <f t="shared" si="1"/>
         <v>0.3373826615</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="1">
+        <v>28.6742</v>
+      </c>
+      <c r="J13" s="1">
+        <v>115.91</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="1">
         <v>450.0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="M13" s="1">
         <v>2100.0</v>
       </c>
-      <c r="H13" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="2"/>
         <v>1275</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>28</v>
+      <c r="O13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="2">
         <v>5.0</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="1"/>
-        <v>0.2857142857</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1">
+        <v>35.0116</v>
+      </c>
+      <c r="J14" s="1">
+        <v>135.7681</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="1">
         <v>200.0</v>
       </c>
-      <c r="G14" s="1">
+      <c r="M14" s="1">
         <v>750.0</v>
       </c>
-      <c r="H14" s="1">
+      <c r="N14" s="1">
         <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>28</v>
+      <c r="O14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2">
         <v>6.54</v>
@@ -901,63 +1271,99 @@
         <f t="shared" si="1"/>
         <v>0.4497936726</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="1">
+        <v>34.9756</v>
+      </c>
+      <c r="J15" s="1">
+        <v>138.3827</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="1">
         <v>200.0</v>
       </c>
-      <c r="G15" s="1">
+      <c r="M15" s="1">
         <v>500.0</v>
       </c>
-      <c r="H15" s="1">
+      <c r="N15" s="1">
         <f t="shared" si="2"/>
         <v>350</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>12</v>
+      <c r="O15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2">
         <v>2.81</v>
       </c>
       <c r="C16" s="2">
-        <v>11.82</v>
+        <v>6.0</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="1"/>
-        <v>0.1920710868</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1">
+        <v>0.3189557321</v>
+      </c>
+      <c r="E16" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="1">
+        <v>31.5969</v>
+      </c>
+      <c r="J16" s="1">
+        <v>130.5571</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="1">
         <v>500.0</v>
       </c>
-      <c r="G16" s="1">
+      <c r="M16" s="1">
         <v>600.0</v>
       </c>
-      <c r="H16" s="1">
+      <c r="N16" s="1">
         <f t="shared" si="2"/>
         <v>550</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>12</v>
+      <c r="O16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2">
         <v>6.0</v>
@@ -969,29 +1375,47 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="1">
+        <v>34.9756</v>
+      </c>
+      <c r="J17" s="1">
+        <v>138.3827</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="1">
         <v>350.0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="M17" s="1">
         <v>400.0</v>
       </c>
-      <c r="H17" s="1">
+      <c r="N17" s="1">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>12</v>
+      <c r="O17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2">
         <v>3.8</v>
@@ -1003,29 +1427,47 @@
         <f t="shared" si="1"/>
         <v>0.1906673357</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="1">
+        <v>31.8616</v>
+      </c>
+      <c r="J18" s="1">
+        <v>117.2857</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="1">
         <v>1200.0</v>
       </c>
-      <c r="G18" s="1">
+      <c r="M18" s="1">
         <v>1600.0</v>
       </c>
-      <c r="H18" s="1">
+      <c r="N18" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>19</v>
+      <c r="O18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2">
         <v>0.01</v>
@@ -1037,29 +1479,47 @@
         <f t="shared" si="1"/>
         <v>0.0003332222592</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="1">
+        <v>26.9377</v>
+      </c>
+      <c r="J19" s="1">
+        <v>54.4342</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="1">
         <v>400.0</v>
       </c>
-      <c r="G19" s="1">
+      <c r="M19" s="1">
         <v>800.0</v>
       </c>
-      <c r="H19" s="1">
+      <c r="N19" s="1">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>12</v>
+      <c r="O19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2">
         <v>30.0</v>
@@ -1071,24 +1531,42 @@
         <f t="shared" si="1"/>
         <v>0.4285714286</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="1">
+        <v>33.5902</v>
+      </c>
+      <c r="J20" s="1">
+        <v>130.4017</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="1">
         <v>400.0</v>
       </c>
-      <c r="G20" s="1">
+      <c r="M20" s="1">
         <v>600.0</v>
       </c>
-      <c r="H20" s="1">
+      <c r="N20" s="1">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>12</v>
+      <c r="O20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
